--- a/角色卡/FAG魔术师角色卡v0.5.xlsx
+++ b/角色卡/FAG魔术师角色卡v0.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1623" documentId="11_AD4DA82427541F7ACA7EB894F0080A8A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AD4EEC-4BD7-4D3F-9DB6-93D17196676C}"/>
+  <xr:revisionPtr revIDLastSave="1627" documentId="11_AD4DA82427541F7ACA7EB894F0080A8A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63852F28-1491-4CA3-A778-C4A30AFF0668}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1131,7 +1131,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1139,15 +1138,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1175,7 +1173,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1184,419 +1182,419 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1883,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1899,321 +1897,321 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="76" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="I2" s="76" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="I2" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="41" t="s">
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
       <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="174" t="s">
+      <c r="R3" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="113"/>
       <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="175"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="138"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="37" t="s">
+      <c r="B5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="I5" s="13" t="s">
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="I5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="14">
+        <f>N5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <f>J4*P5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>2</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="R5" s="176">
-        <f>O2</f>
+      <c r="R5" s="41">
+        <f>O4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="147"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="113"/>
       <c r="I6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="5">
-        <f>J4 * N7</f>
+      <c r="J6" s="5"/>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10">
+        <f>N6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="11">
-        <f>N4*P7</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <f>N4*P6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>2</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="175">
+      <c r="R6" s="40">
         <f>MIN(P4, Q4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="I7" s="13" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="113"/>
+      <c r="I7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f>MAX(J1+K1+L1, J1+M1+N1)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f>J1*2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f>L1</f>
         <v>0</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <f>K1</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="176">
+      <c r="R7" s="41">
         <f>N1</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
       <c r="I8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>L4</f>
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <f>P4</f>
         <v>0</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="M8" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="92"/>
-      <c r="O8" s="20">
+      <c r="N8" s="116"/>
+      <c r="O8" s="18">
         <v>30</v>
       </c>
-      <c r="P8" s="91" t="s">
+      <c r="P8" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="177">
+      <c r="Q8" s="116"/>
+      <c r="R8" s="42">
         <f>2*O8</f>
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <f>M4</f>
         <v>0</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f>N4</f>
         <v>0</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="15">
+      <c r="N9" s="118"/>
+      <c r="O9" s="14">
         <v>50</v>
       </c>
-      <c r="P9" s="93" t="s">
+      <c r="P9" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="176">
+      <c r="Q9" s="118"/>
+      <c r="R9" s="41">
         <f>2*O9</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>1</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>1</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>1</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="175">
+      <c r="R10" s="40">
         <f>FLOOR(M4/3 - 1, 1)</f>
         <v>-1</v>
       </c>
@@ -2222,625 +2220,623 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
-      <c r="I11" s="96" t="s">
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
+      <c r="I11" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="118"/>
+      <c r="K11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="93" t="s">
+      <c r="L11" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="15">
+      <c r="M11" s="118"/>
+      <c r="N11" s="14">
         <v>0</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="176"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="I12" s="95" t="s">
+      <c r="I12" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="92"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="116"/>
+      <c r="K12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="20">
+      <c r="M12" s="116"/>
+      <c r="N12" s="18">
         <v>0</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="177"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="I13" s="178" t="s">
+      <c r="G13" s="9"/>
+      <c r="I13" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="113"/>
     </row>
     <row r="15" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="131"/>
-      <c r="I15" s="178"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="143"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="46"/>
     </row>
     <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="47"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="17" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="179"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="110"/>
     </row>
     <row r="18" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="I19" s="76" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="I19" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
     </row>
     <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="I20" s="101" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="22" t="s">
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="22" t="s">
+      <c r="N20" s="21"/>
+      <c r="O20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="22" t="s">
+      <c r="P20" s="21"/>
+      <c r="Q20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="23"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="24" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="58"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="17" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
     </row>
     <row r="23" spans="2:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="I23" s="50" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="I23" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="26" t="s">
+      <c r="K23" s="102"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="26" t="s">
+      <c r="N23" s="25"/>
+      <c r="O23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="26" t="s">
+      <c r="P23" s="25"/>
+      <c r="Q23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="28"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="16" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
     </row>
     <row r="25" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="126"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="18" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
     </row>
     <row r="26" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="126"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
-      <c r="I26" s="104" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="I26" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="29" t="s">
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="107"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="29" t="s">
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="109"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="100"/>
     </row>
     <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="126"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="114"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="24" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="109"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="100"/>
     </row>
     <row r="28" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="145"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="24" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="109"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="100"/>
     </row>
     <row r="29" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="27" t="s">
+      <c r="K29" s="102"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="64"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="126"/>
     </row>
     <row r="30" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="16" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="55"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
     </row>
     <row r="31" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="123"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="18" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="97"/>
     </row>
     <row r="32" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="I32" s="65" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="I32" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="69"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="68"/>
     </row>
     <row r="33" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="72"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="71"/>
     </row>
     <row r="34" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="126" t="s">
+      <c r="B34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="114"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="75"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="131"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="126"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="114"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="126"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
-      <c r="I36" s="76" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="I36" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="78"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="89"/>
     </row>
     <row r="37" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="81"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="106"/>
     </row>
     <row r="38" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="117"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="98"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="84"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="46"/>
     </row>
     <row r="39" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="118"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="134"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="84"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="46"/>
     </row>
     <row r="40" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="87"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="110"/>
     </row>
     <row r="41" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2848,6 +2844,51 @@
     <row r="44" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:G8"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C24:G28"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="L30:R31"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:R34"/>
+    <mergeCell ref="I36:R36"/>
+    <mergeCell ref="I37:R40"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="L24:R25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="K13:R13"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C16:G16"/>
@@ -2864,51 +2905,6 @@
     <mergeCell ref="L21:R22"/>
     <mergeCell ref="I20:I22"/>
     <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="L24:R25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I36:R36"/>
-    <mergeCell ref="I37:R40"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="L30:R31"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:R34"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:G8"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C24:G28"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2931,138 +2927,138 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="I2" s="76" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="159"/>
+      <c r="I2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="I3" s="32" t="s">
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
+      <c r="I3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="30" t="s">
+      <c r="J3" s="170"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="29">
         <v>3</v>
       </c>
-      <c r="O3" s="153" t="s">
+      <c r="O3" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="31">
+      <c r="P3" s="169"/>
+      <c r="Q3" s="29">
         <v>3</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="I4" s="33" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="163"/>
+      <c r="I4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="158"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="161"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="165"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="176"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="176"/>
     </row>
     <row r="7" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="179"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17">
@@ -3071,16 +3067,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:R7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G7"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:R7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/角色卡/FAG魔术师角色卡v0.5.xlsx
+++ b/角色卡/FAG魔术师角色卡v0.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1627" documentId="11_AD4DA82427541F7ACA7EB894F0080A8A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63852F28-1491-4CA3-A778-C4A30AFF0668}"/>
+  <xr:revisionPtr revIDLastSave="1628" documentId="11_AD4DA82427541F7ACA7EB894F0080A8A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{496F4B6B-AC47-4FE5-8A92-D5142668235E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>招架</t>
   </si>
   <si>
-    <t>抗魔</t>
-  </si>
-  <si>
     <t>知觉隐蔽</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   <si>
     <t>魔力节</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉</t>
   </si>
 </sst>
 </file>
@@ -1188,14 +1188,266 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,12 +1455,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,12 +1482,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,24 +1494,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1299,227 +1521,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1559,42 +1595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1897,38 +1897,38 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="87" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="I2" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="I2" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="132" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1942,10 +1942,10 @@
         <v>29</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>30</v>
@@ -1961,14 +1961,14 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="113"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
       <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1983,40 +1983,40 @@
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="147"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="I5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" s="14">
         <f>N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="14">
         <f>J4*P5</f>
         <v>0</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="14">
         <v>2</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R5" s="41">
         <f>O4</f>
@@ -2024,16 +2024,16 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="147"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="135" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="113"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
       <c r="I6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="10" t="s">
@@ -2044,20 +2044,20 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="10">
         <f>N4*P6</f>
         <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P6" s="10">
         <v>2</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R6" s="40">
         <f>MIN(P4, Q4)</f>
@@ -2065,14 +2065,14 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="147"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="113"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="I7" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="13">
         <f>MAX(J1+K1+L1, J1+M1+N1)</f>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="R7" s="41">
         <f>N1</f>
@@ -2108,37 +2108,37 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
       <c r="I8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="17">
         <f>L4</f>
         <v>0</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="18">
         <f>P4</f>
         <v>0</v>
       </c>
-      <c r="M8" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="116"/>
+      <c r="M8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="115"/>
       <c r="O8" s="18">
         <v>30</v>
       </c>
-      <c r="P8" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="116"/>
+      <c r="P8" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="115"/>
       <c r="R8" s="42">
         <f>2*O8</f>
         <v>60</v>
@@ -2146,44 +2146,44 @@
     </row>
     <row r="9" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="13">
         <f>M4</f>
         <v>0</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" s="14">
         <f>N4</f>
         <v>0</v>
       </c>
-      <c r="M9" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="118"/>
+      <c r="M9" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="117"/>
       <c r="O9" s="14">
         <v>50</v>
       </c>
-      <c r="P9" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="118"/>
+      <c r="P9" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="117"/>
       <c r="R9" s="41">
         <f>2*O9</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
+      <c r="B10" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2191,25 +2191,25 @@
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="10">
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" s="10">
         <v>1</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P10" s="10">
         <v>1</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R10" s="40">
         <f>FLOOR(M4/3 - 1, 1)</f>
@@ -2220,22 +2220,22 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
-      <c r="I11" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="118"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="I11" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="117"/>
       <c r="K11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="118"/>
+        <v>97</v>
+      </c>
+      <c r="L11" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="117"/>
       <c r="N11" s="14">
         <v>0</v>
       </c>
@@ -2257,17 +2257,17 @@
         <v>14</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="I12" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="116"/>
+      <c r="I12" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="115"/>
       <c r="K12" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="116"/>
+        <v>97</v>
+      </c>
+      <c r="L12" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="115"/>
       <c r="N12" s="18">
         <v>0</v>
       </c>
@@ -2287,85 +2287,85 @@
         <v>15</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="I13" s="121" t="s">
-        <v>44</v>
+      <c r="I13" s="120" t="s">
+        <v>43</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="106"/>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="I14" s="121"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="I14" s="120"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="113"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
-      <c r="I15" s="121"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="I15" s="120"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="46"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="106"/>
     </row>
     <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="121"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="113"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="50"/>
     </row>
     <row r="17" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="8" t="s">
         <v>0</v>
       </c>
@@ -2375,468 +2375,468 @@
       <c r="G17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="122"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="110"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="109"/>
     </row>
     <row r="18" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+        <v>60</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="I19" s="87" t="s">
+      <c r="B19" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="I19" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="145"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97"/>
+      <c r="I20" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="89"/>
-    </row>
-    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="I20" s="80" t="s">
-        <v>46</v>
-      </c>
       <c r="J20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+        <v>48</v>
+      </c>
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
       <c r="M20" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" s="21"/>
       <c r="O20" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R20" s="21"/>
     </row>
     <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="I21" s="81"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="I21" s="123"/>
       <c r="J21" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="140"/>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="145"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
-    </row>
-    <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
     </row>
     <row r="23" spans="2:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="I23" s="83" t="s">
-        <v>47</v>
+      <c r="B23" s="145"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="I23" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="102"/>
-      <c r="L23" s="103"/>
+        <v>48</v>
+      </c>
+      <c r="K23" s="84"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R23" s="26"/>
     </row>
     <row r="24" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
-      <c r="I24" s="84"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" s="25"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="59"/>
     </row>
     <row r="25" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="61"/>
-      <c r="I25" s="85"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25" s="18"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="83"/>
     </row>
     <row r="26" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
       <c r="G26" s="61"/>
-      <c r="I26" s="86" t="s">
-        <v>48</v>
+      <c r="I26" s="122" t="s">
+        <v>47</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="99"/>
+        <v>61</v>
+      </c>
+      <c r="K26" s="127"/>
+      <c r="L26" s="128"/>
       <c r="M26" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="98"/>
-      <c r="O26" s="99"/>
+        <v>65</v>
+      </c>
+      <c r="N26" s="127"/>
+      <c r="O26" s="128"/>
       <c r="P26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="100"/>
+        <v>64</v>
+      </c>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="129"/>
     </row>
     <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
       <c r="G27" s="61"/>
-      <c r="I27" s="81"/>
+      <c r="I27" s="123"/>
       <c r="J27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="129"/>
+    </row>
+    <row r="28" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="150"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="100"/>
-    </row>
-    <row r="28" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="76"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="141"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="22" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="129"/>
+    </row>
+    <row r="29" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="100"/>
-    </row>
-    <row r="29" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="15" t="s">
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+    </row>
+    <row r="30" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="102"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="124"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="126"/>
-    </row>
-    <row r="30" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="15" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
+    </row>
+    <row r="31" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="135"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-    </row>
-    <row r="31" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="K31" s="18"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="97"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="47"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="I32" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="68"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="140"/>
+      <c r="I32" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
     </row>
     <row r="33" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="71"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="97"/>
     </row>
     <row r="34" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="141"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="131"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="100"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="59"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="141"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="59"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="141"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
-      <c r="I36" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="89"/>
+      <c r="I36" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="68"/>
     </row>
     <row r="37" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="106"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="140"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
     </row>
     <row r="38" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="47"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="46"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="140"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="106"/>
     </row>
     <row r="39" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="48"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="46"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="148"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="106"/>
     </row>
     <row r="40" spans="2:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="110"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="109"/>
     </row>
     <row r="41" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2844,25 +2844,30 @@
     <row r="44" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:G8"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C24:G28"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="L30:R31"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:R34"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C31:G33"/>
+    <mergeCell ref="C34:G36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:G23"/>
+    <mergeCell ref="C37:G39"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="L24:R25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="L21:R22"/>
     <mergeCell ref="I36:R36"/>
     <mergeCell ref="I37:R40"/>
     <mergeCell ref="I2:R2"/>
@@ -2879,32 +2884,27 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="I13:I17"/>
+    <mergeCell ref="L30:R31"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:R34"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:G8"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C24:G28"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I19:R19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="L24:R25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C31:G33"/>
-    <mergeCell ref="C34:G36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:G23"/>
-    <mergeCell ref="C37:G39"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="L21:R22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2927,52 +2927,52 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="159"/>
-      <c r="I2" s="87" t="s">
+      <c r="B2" s="169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="I2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
+        <v>83</v>
+      </c>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
       <c r="I3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="170"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="29">
         <v>3</v>
       </c>
-      <c r="O3" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="169"/>
+      <c r="O3" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="156"/>
       <c r="Q3" s="29">
         <v>3</v>
       </c>
@@ -2982,83 +2982,83 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="163"/>
+        <v>82</v>
+      </c>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="175"/>
       <c r="I4" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="173"/>
+        <v>54</v>
+      </c>
+      <c r="J4" s="158"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="163"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="165"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="176"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="176"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="163"/>
     </row>
     <row r="7" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="156"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="179"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="179"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="166"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17">
